--- a/biology/Botanique/Canscora/Canscora.xlsx
+++ b/biology/Botanique/Canscora/Canscora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canscora est un genre de plantes appartenant à la famille des Gentianaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017) :
 Canscora alata (Roth) Wall.
 Canscora andrographioides Griff. ex C. B. Cl.
 Canscora bhatiana K.S.Prasad &amp; Raveendran
@@ -526,15 +540,15 @@
 Canscora roxburghii Arn. ex Miq.
 Canscora sanjappae Diwakar &amp; R.Kr.Singh
 Canscora schultesii Wall.
-Selon GRIN            (24 juillet 2017)[3] :
+Selon GRIN            (24 juillet 2017) :
 Canscora alata (Roth) Wall.
 Canscora diffusa (Vahl) R. Br. ex Roem. &amp; Schult.
-Selon NCBI  (24 juillet 2017)[4] :
+Selon NCBI  (24 juillet 2017) :
 Canscora alata
 Canscora andrographioides
 Canscora diffusa
 Canscora pentanthera
-Selon The Plant List            (24 juillet 2017)[5] :
+Selon The Plant List            (24 juillet 2017) :
 Canscora alata (Roth) Wall.
 Canscora andrographioides Griff. ex C.B.Clarke
 Canscora bidoupensis Hul
@@ -546,7 +560,7 @@
 Canscora roxburghii Arn. ex Miq.
 Canscora sanjappae Diwakar &amp; R.Kr.Singh
 Canscora schultesii Wall. ex Griseb.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Canscora alata (Roth ex Roem. &amp; Schult.) Wall.
 Canscora andrographioides Griff. ex C.B. Clarke
 Canscora bidoupensis Hul
